--- a/bulk.xlsx
+++ b/bulk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Course\FSWD\Back-end\Bulkmail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71BCB08-C3AA-4F72-A7EB-A0ED633E58BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9BC95A-B6E0-4691-BE38-62A1F6C802D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>selvarannav6231@gamil.com</t>
+    <t>xehahat249@ethsms.com</t>
   </si>
   <si>
-    <t>abc@gmail.com</t>
+    <t>ramig94157@ihnpo.com</t>
   </si>
 </sst>
 </file>
@@ -362,7 +362,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -381,10 +381,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{6CA6E511-E2B8-4BBC-991D-186F57F966B0}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{B6AE91CC-7CBE-4025-B15F-B698B6EA48D0}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/bulk.xlsx
+++ b/bulk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Course\FSWD\Back-end\Bulkmail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9BC95A-B6E0-4691-BE38-62A1F6C802D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99DA29D-5807-477D-A06B-2387149FF5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,10 +27,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>xehahat249@ethsms.com</t>
+    <t>ramig94157@ihnpo.com</t>
   </si>
   <si>
-    <t>ramig94157@ihnpo.com</t>
+    <t>selvarannav6231@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -372,15 +372,18 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{06BFF096-B55E-4567-BA66-2E1C10994587}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>